--- a/example-0002_dra_metadata.xlsx
+++ b/example-0002_dra_metadata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\github\submission-excel2xml-2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\github\excel\submission-excel2xml\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D738A0A-7F06-47C7-A5D4-FC44532518D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EE4E734-8ECF-4278-9CB7-542C6EA55C0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="430" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" tabRatio="430" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Readme" sheetId="9" r:id="rId1"/>
@@ -400,7 +400,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="313">
   <si>
     <t>Library Source</t>
   </si>
@@ -700,9 +700,6 @@
   </si>
   <si>
     <t>AB 3130 Genetic Analyzer</t>
-  </si>
-  <si>
-    <t>AB 310 Genetic Analyzer</t>
   </si>
   <si>
     <t>cDNA_randomPriming</t>
@@ -1309,14 +1306,6 @@
   </si>
   <si>
     <t>tsv</t>
-  </si>
-  <si>
-    <t>2023-09-04 Bioinformation and DDBJ Center</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>v1.6</t>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>This excel file is used to generate Submission, Experiment, Run and Analysis XMLs for DDBJ Sequence Read Archive (DRA) submission. 
@@ -1324,6 +1313,65 @@
 Analysis-only submission is NOT acceptable. Submit Analysis in a DRA Submission which has Run(s).
 Please see https://github.com/ddbj/submission-excel2xml for details.</t>
     <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Illumina HiSeq X</t>
+  </si>
+  <si>
+    <t>DNBSEQ-G400 FAST</t>
+  </si>
+  <si>
+    <t>BGISEQ-50</t>
+  </si>
+  <si>
+    <t>Sequel IIe</t>
+  </si>
+  <si>
+    <t>Onso</t>
+  </si>
+  <si>
+    <t>Revio</t>
+  </si>
+  <si>
+    <t>Ion Torrent Genexus</t>
+  </si>
+  <si>
+    <t>GS111</t>
+  </si>
+  <si>
+    <t>GenoCare 1600</t>
+  </si>
+  <si>
+    <t>GenoLab M</t>
+  </si>
+  <si>
+    <t>FASTASeq 300</t>
+  </si>
+  <si>
+    <t>Tapestri</t>
+  </si>
+  <si>
+    <t>Sentosa SQ301</t>
+  </si>
+  <si>
+    <t>2023-xx-xx Bioinformation and DDBJ Center</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>v1.7</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Illumina NovaSeq X</t>
+  </si>
+  <si>
+    <t>AB 310 Genetic Analyzer</t>
+  </si>
+  <si>
+    <t>Element AVITI</t>
+  </si>
+  <si>
+    <t>UG 100</t>
   </si>
 </sst>
 </file>
@@ -1334,7 +1382,7 @@
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="177" formatCode="0_);\(0\)"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1408,6 +1456,12 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1475,9 +1529,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1503,6 +1554,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1797,9 +1851,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A7"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2"/>
   <cols>
@@ -1809,27 +1861,27 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="2" t="s">
-        <v>294</v>
+        <v>307</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="2" t="s">
-        <v>295</v>
+        <v>308</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="52.8">
       <c r="A4" s="3" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="10" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="11" t="s">
         <v>150</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" s="12" t="s">
-        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -1844,7 +1896,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
@@ -1858,55 +1910,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="C1" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="B1" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="C1" s="13" t="s">
-        <v>126</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>152</v>
+      <c r="D1" s="10" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>172</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>173</v>
       </c>
       <c r="C2" s="1">
         <v>45292</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="B4" s="10" t="s">
         <v>127</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>175</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B6" t="s">
         <v>177</v>
-      </c>
-      <c r="B6" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1923,9 +1975,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="E1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="I2" sqref="I2:I3000"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2"/>
@@ -1945,52 +1997,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="11" t="s">
-        <v>130</v>
-      </c>
-      <c r="B1" s="11" t="s">
+      <c r="A1" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="J1" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="K1" s="11" t="s">
         <v>168</v>
-      </c>
-      <c r="K1" s="12" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>181</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>182</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>3</v>
@@ -2002,7 +2054,7 @@
         <v>17</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>58</v>
@@ -2013,16 +2065,16 @@
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>186</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>187</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>3</v>
@@ -2034,7 +2086,7 @@
         <v>17</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>58</v>
@@ -2045,16 +2097,16 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>191</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>192</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>3</v>
@@ -2066,30 +2118,30 @@
         <v>17</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>52</v>
       </c>
       <c r="J4" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>194</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="C5" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>198</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>199</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>3</v>
@@ -2101,16 +2153,16 @@
         <v>17</v>
       </c>
       <c r="H5" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="K5" s="2" t="s">
         <v>200</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>201</v>
       </c>
     </row>
   </sheetData>
@@ -2147,7 +2199,7 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000004000000}">
           <x14:formula1>
-            <xm:f>Admin!$D$2:$D$66</xm:f>
+            <xm:f>Admin!$D$2:$D$82</xm:f>
           </x14:formula1>
           <xm:sqref>I2:I3000</xm:sqref>
         </x14:dataValidation>
@@ -2174,58 +2226,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="B1" s="11" t="s">
+      <c r="A1" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="10" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>203</v>
-      </c>
       <c r="C2" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>205</v>
-      </c>
       <c r="C3" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>207</v>
-      </c>
       <c r="C4" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>209</v>
-      </c>
       <c r="C5" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>
@@ -2253,101 +2305,101 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="13" t="s">
-        <v>129</v>
-      </c>
-      <c r="C1" s="13" t="s">
+      <c r="B1" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="C1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="12" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>211</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>213</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>215</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>217</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -28731,269 +28783,269 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="13" t="s">
         <v>223</v>
       </c>
-      <c r="B1" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" s="14" t="s">
+      <c r="D1" s="13" t="s">
         <v>224</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="E1" s="13" t="s">
         <v>225</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="F1" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="14" t="s">
         <v>226</v>
       </c>
-      <c r="F1" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="15" t="s">
+      <c r="J1" s="14" t="s">
         <v>227</v>
       </c>
-      <c r="J1" s="15" t="s">
+      <c r="K1" s="14" t="s">
         <v>228</v>
       </c>
-      <c r="K1" s="15" t="s">
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="15" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="16" t="s">
+      <c r="B2" s="15" t="s">
         <v>230</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="C2" s="15" t="s">
         <v>231</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="D2" s="15" t="s">
         <v>232</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="E2" s="15" t="s">
         <v>233</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="F2" s="15" t="s">
         <v>234</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="G2" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="15" t="s">
         <v>235</v>
       </c>
-      <c r="G2" s="16" t="s">
+      <c r="I2" s="15" t="s">
+        <v>236</v>
+      </c>
+      <c r="J2" s="15" t="s">
+        <v>237</v>
+      </c>
+      <c r="K2" s="15"/>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="15" t="s">
+        <v>238</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>239</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>240</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>232</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>241</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="G3" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="16" t="s">
+      <c r="H3" s="15" t="s">
+        <v>243</v>
+      </c>
+      <c r="I3" s="15" t="s">
         <v>236</v>
       </c>
-      <c r="I2" s="16" t="s">
+      <c r="J3" s="15" t="s">
         <v>237</v>
       </c>
-      <c r="J2" s="16" t="s">
-        <v>238</v>
-      </c>
-      <c r="K2" s="16"/>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="16" t="s">
-        <v>239</v>
-      </c>
-      <c r="B3" s="16" t="s">
-        <v>240</v>
-      </c>
-      <c r="C3" s="16" t="s">
-        <v>241</v>
-      </c>
-      <c r="D3" s="16" t="s">
-        <v>233</v>
-      </c>
-      <c r="E3" s="16" t="s">
-        <v>242</v>
-      </c>
-      <c r="F3" s="16" t="s">
-        <v>243</v>
-      </c>
-      <c r="G3" s="16" t="s">
+      <c r="K3" s="15"/>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>245</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>246</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>232</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>247</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>248</v>
+      </c>
+      <c r="G4" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="16" t="s">
-        <v>244</v>
-      </c>
-      <c r="I3" s="16" t="s">
+      <c r="H4" s="15" t="s">
+        <v>249</v>
+      </c>
+      <c r="I4" s="15" t="s">
+        <v>236</v>
+      </c>
+      <c r="J4" s="15" t="s">
         <v>237</v>
       </c>
-      <c r="J3" s="16" t="s">
-        <v>238</v>
-      </c>
-      <c r="K3" s="16"/>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="16" t="s">
-        <v>245</v>
-      </c>
-      <c r="B4" s="16" t="s">
-        <v>246</v>
-      </c>
-      <c r="C4" s="16" t="s">
-        <v>247</v>
-      </c>
-      <c r="D4" s="16" t="s">
-        <v>233</v>
-      </c>
-      <c r="E4" s="16" t="s">
-        <v>248</v>
-      </c>
-      <c r="F4" s="16" t="s">
-        <v>249</v>
-      </c>
-      <c r="G4" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="H4" s="16" t="s">
+      <c r="K4" s="15"/>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="15" t="s">
         <v>250</v>
       </c>
-      <c r="I4" s="16" t="s">
-        <v>237</v>
-      </c>
-      <c r="J4" s="16" t="s">
-        <v>238</v>
-      </c>
-      <c r="K4" s="16"/>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="16" t="s">
+      <c r="B5" s="15" t="s">
         <v>251</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="C5" s="15" t="s">
         <v>252</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="D5" s="15" t="s">
         <v>253</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="E5" s="15" t="s">
         <v>254</v>
       </c>
-      <c r="E5" s="16" t="s">
+      <c r="F5" s="15" t="s">
         <v>255</v>
       </c>
-      <c r="F5" s="16" t="s">
+      <c r="G5" s="15" t="s">
         <v>256</v>
       </c>
-      <c r="G5" s="16" t="s">
+      <c r="H5" s="15" t="s">
         <v>257</v>
       </c>
-      <c r="H5" s="16" t="s">
+      <c r="I5" s="15"/>
+      <c r="J5" s="15" t="s">
         <v>258</v>
       </c>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16" t="s">
+      <c r="K5" s="15" t="s">
         <v>259</v>
       </c>
-      <c r="K5" s="16" t="s">
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="15" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="16" t="s">
+      <c r="B6" s="15" t="s">
         <v>261</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="C6" s="15" t="s">
         <v>262</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="D6" s="15" t="s">
+        <v>253</v>
+      </c>
+      <c r="E6" s="15" t="s">
         <v>263</v>
       </c>
-      <c r="D6" s="16" t="s">
-        <v>254</v>
-      </c>
-      <c r="E6" s="16" t="s">
+      <c r="F6" s="15" t="s">
         <v>264</v>
       </c>
-      <c r="F6" s="16" t="s">
+      <c r="G6" s="15" t="s">
         <v>265</v>
       </c>
-      <c r="G6" s="16" t="s">
+      <c r="H6" s="15" t="s">
         <v>266</v>
       </c>
-      <c r="H6" s="16" t="s">
+      <c r="I6" s="15"/>
+      <c r="J6" s="15" t="s">
         <v>267</v>
       </c>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16" t="s">
+      <c r="K6" s="15" t="s">
         <v>268</v>
       </c>
-      <c r="K6" s="16" t="s">
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="15" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="16" t="s">
+      <c r="B7" s="15" t="s">
         <v>270</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="C7" s="15" t="s">
+        <v>262</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>253</v>
+      </c>
+      <c r="E7" s="15" t="s">
         <v>271</v>
       </c>
-      <c r="C7" s="16" t="s">
-        <v>263</v>
-      </c>
-      <c r="D7" s="16" t="s">
-        <v>254</v>
-      </c>
-      <c r="E7" s="16" t="s">
+      <c r="F7" s="15" t="s">
         <v>272</v>
       </c>
-      <c r="F7" s="16" t="s">
+      <c r="G7" s="15" t="s">
+        <v>265</v>
+      </c>
+      <c r="H7" s="15" t="s">
         <v>273</v>
       </c>
-      <c r="G7" s="16" t="s">
-        <v>266</v>
-      </c>
-      <c r="H7" s="16" t="s">
+      <c r="I7" s="15"/>
+      <c r="J7" s="15" t="s">
+        <v>267</v>
+      </c>
+      <c r="K7" s="15" t="s">
         <v>274</v>
       </c>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16" t="s">
-        <v>268</v>
-      </c>
-      <c r="K7" s="16" t="s">
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="15" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="16" t="s">
+      <c r="B8" s="15" t="s">
         <v>276</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="C8" s="15" t="s">
+        <v>262</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>253</v>
+      </c>
+      <c r="E8" s="15" t="s">
         <v>277</v>
       </c>
-      <c r="C8" s="16" t="s">
-        <v>263</v>
-      </c>
-      <c r="D8" s="16" t="s">
-        <v>254</v>
-      </c>
-      <c r="E8" s="16" t="s">
+      <c r="F8" s="15" t="s">
         <v>278</v>
       </c>
-      <c r="F8" s="16" t="s">
+      <c r="G8" s="15" t="s">
+        <v>265</v>
+      </c>
+      <c r="H8" s="15" t="s">
         <v>279</v>
       </c>
-      <c r="G8" s="16" t="s">
-        <v>266</v>
-      </c>
-      <c r="H8" s="16" t="s">
+      <c r="I8" s="15"/>
+      <c r="J8" s="15" t="s">
+        <v>267</v>
+      </c>
+      <c r="K8" s="15" t="s">
         <v>280</v>
-      </c>
-      <c r="I8" s="16"/>
-      <c r="J8" s="16" t="s">
-        <v>268</v>
-      </c>
-      <c r="K8" s="16" t="s">
-        <v>281</v>
       </c>
     </row>
   </sheetData>
@@ -29023,11 +29075,9 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:H66"/>
+  <dimension ref="A1:H83"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
-    </sheetView>
+    <sheetView topLeftCell="A2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2"/>
   <cols>
@@ -29042,32 +29092,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="9" t="s">
-        <v>170</v>
-      </c>
-      <c r="F1" s="10" t="s">
+      <c r="E1" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="F1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="G1" s="16" t="s">
+        <v>281</v>
+      </c>
+      <c r="H1" s="16" t="s">
         <v>282</v>
       </c>
-      <c r="H1" s="17" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+    </row>
+    <row r="2" spans="1:8" ht="13.8">
       <c r="A2" s="5" t="s">
         <v>3</v>
       </c>
@@ -29077,25 +29127,25 @@
       <c r="C2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="7" t="s">
-        <v>18</v>
+      <c r="D2" s="18" t="s">
+        <v>115</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>15</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="G2" s="18" t="s">
-        <v>254</v>
-      </c>
-      <c r="H2" s="16" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>166</v>
+      </c>
+      <c r="G2" s="17" t="s">
+        <v>253</v>
+      </c>
+      <c r="H2" s="15" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="13.8">
       <c r="A3" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>21</v>
@@ -29103,49 +29153,49 @@
       <c r="C3" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="7" t="s">
-        <v>23</v>
+      <c r="D3" s="18" t="s">
+        <v>61</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="G3" s="18" t="s">
-        <v>233</v>
-      </c>
-      <c r="H3" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="G3" s="17" t="s">
+        <v>232</v>
+      </c>
+      <c r="H3" s="15" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" ht="13.8">
       <c r="A4" s="5" t="s">
         <v>20</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="7" t="s">
-        <v>27</v>
+      <c r="D4" s="18" t="s">
+        <v>40</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="18" t="s">
-        <v>285</v>
-      </c>
-      <c r="H4" s="16" t="s">
+      <c r="G4" s="17" t="s">
+        <v>284</v>
+      </c>
+      <c r="H4" s="15" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" ht="13.8">
       <c r="A5" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>29</v>
@@ -29153,21 +29203,21 @@
       <c r="C5" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="7" t="s">
-        <v>31</v>
+      <c r="D5" s="18" t="s">
+        <v>42</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="G5" s="18" t="s">
-        <v>286</v>
-      </c>
-      <c r="H5" s="16" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="G5" s="17" t="s">
+        <v>285</v>
+      </c>
+      <c r="H5" s="15" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="13.8">
       <c r="A6" s="5" t="s">
         <v>25</v>
       </c>
@@ -29175,21 +29225,21 @@
         <v>33</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>35</v>
+        <v>105</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>46</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="G6" s="18"/>
-      <c r="H6" s="16" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="G6" s="17"/>
+      <c r="H6" s="15" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="13.8">
       <c r="A7" s="5" t="s">
         <v>28</v>
       </c>
@@ -29199,57 +29249,57 @@
       <c r="C7" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="7" t="s">
-        <v>37</v>
+      <c r="D7" s="18" t="s">
+        <v>60</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="G7" s="18"/>
-      <c r="H7" s="16" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>138</v>
+      </c>
+      <c r="G7" s="17"/>
+      <c r="H7" s="15" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="13.8">
       <c r="A8" s="5" t="s">
         <v>32</v>
       </c>
       <c r="B8" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="E8" s="5"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="15" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="13.8">
+      <c r="A9" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="E8" s="5"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="16" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="5" t="s">
+      <c r="B9" s="6" t="s">
         <v>137</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>138</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="D9" s="5" t="s">
-        <v>42</v>
+      <c r="D9" s="18" t="s">
+        <v>14</v>
       </c>
       <c r="E9" s="5"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="16" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="G9" s="17"/>
+      <c r="H9" s="15" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="13.8">
       <c r="A10" s="5" t="s">
         <v>38</v>
       </c>
@@ -29259,117 +29309,117 @@
       <c r="C10" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="D10" s="5" t="s">
-        <v>46</v>
+      <c r="D10" s="18" t="s">
+        <v>52</v>
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="16" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="G10" s="17"/>
+      <c r="H10" s="15" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="13.8">
       <c r="A11" s="5"/>
       <c r="B11" s="6" t="s">
         <v>47</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>56</v>
+        <v>107</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>49</v>
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="8"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="13.8">
+      <c r="A12" s="7"/>
       <c r="B12" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>14</v>
+        <v>108</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>111</v>
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="G12" s="15"/>
+      <c r="H12" s="15" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="13.8">
       <c r="A13" s="5"/>
       <c r="B13" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D13" s="5" t="s">
-        <v>52</v>
+      <c r="D13" s="18" t="s">
+        <v>112</v>
       </c>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" ht="13.8">
       <c r="A14" s="5"/>
       <c r="B14" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>49</v>
+        <v>106</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>294</v>
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" ht="13.8">
       <c r="A15" s="5"/>
       <c r="B15" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D15" s="5" t="s">
-        <v>112</v>
+      <c r="D15" s="18" t="s">
+        <v>58</v>
       </c>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" ht="13.8">
       <c r="A16" s="5"/>
       <c r="B16" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="D16" s="5" t="s">
-        <v>113</v>
+      <c r="D16" s="18" t="s">
+        <v>165</v>
       </c>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" ht="13.8">
       <c r="A17" s="5"/>
       <c r="B17" s="6" t="s">
         <v>50</v>
@@ -29377,15 +29427,15 @@
       <c r="C17" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="D17" s="5" t="s">
-        <v>116</v>
+      <c r="D17" s="18" t="s">
+        <v>113</v>
       </c>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" ht="13.8">
       <c r="A18" s="5"/>
       <c r="B18" s="6" t="s">
         <v>53</v>
@@ -29393,111 +29443,111 @@
       <c r="C18" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="D18" s="5" t="s">
-        <v>61</v>
+      <c r="D18" s="18" t="s">
+        <v>309</v>
       </c>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" ht="13.8">
       <c r="A19" s="5"/>
       <c r="B19" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="D19" s="5" t="s">
-        <v>60</v>
+      <c r="D19" s="18" t="s">
+        <v>63</v>
       </c>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" ht="13.8">
       <c r="A20" s="5"/>
       <c r="B20" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="D20" s="5" t="s">
-        <v>114</v>
+      <c r="D20" s="18" t="s">
+        <v>155</v>
       </c>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" ht="13.8">
       <c r="A21" s="5"/>
       <c r="B21" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="D21" s="5" t="s">
-        <v>58</v>
+      <c r="D21" s="18" t="s">
+        <v>153</v>
       </c>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" ht="13.8">
       <c r="A22" s="5"/>
       <c r="B22" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="D22" s="5" t="s">
-        <v>166</v>
+      <c r="D22" s="18" t="s">
+        <v>154</v>
       </c>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" ht="13.8">
       <c r="A23" s="5"/>
       <c r="B23" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D23" s="5" t="s">
-        <v>115</v>
+      <c r="D23" s="18" t="s">
+        <v>114</v>
       </c>
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" ht="13.8">
       <c r="A24" s="5"/>
       <c r="B24" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="D24" s="5" t="s">
-        <v>63</v>
+      <c r="D24" s="18" t="s">
+        <v>157</v>
       </c>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" ht="13.8">
       <c r="A25" s="5"/>
       <c r="B25" s="6" t="s">
         <v>66</v>
@@ -29505,15 +29555,15 @@
       <c r="C25" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="D25" s="5" t="s">
-        <v>156</v>
+      <c r="D25" s="18" t="s">
+        <v>295</v>
       </c>
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" ht="13.8">
       <c r="A26" s="5"/>
       <c r="B26" s="6" t="s">
         <v>69</v>
@@ -29521,15 +29571,15 @@
       <c r="C26" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="D26" s="5" t="s">
-        <v>154</v>
+      <c r="D26" s="18" t="s">
+        <v>158</v>
       </c>
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" ht="13.8">
       <c r="A27" s="5"/>
       <c r="B27" s="6" t="s">
         <v>72</v>
@@ -29537,47 +29587,47 @@
       <c r="C27" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="D27" s="5" t="s">
-        <v>155</v>
+      <c r="D27" s="18" t="s">
+        <v>159</v>
       </c>
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
       <c r="G27" s="5"/>
       <c r="H27" s="5"/>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" ht="13.8">
       <c r="A28" s="5"/>
       <c r="B28" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="D28" s="5" t="s">
-        <v>65</v>
+      <c r="D28" s="18" t="s">
+        <v>156</v>
       </c>
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
       <c r="G28" s="5"/>
       <c r="H28" s="5"/>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" ht="13.8">
       <c r="A29" s="5"/>
       <c r="B29" s="5" t="s">
         <v>77</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>68</v>
+        <v>147</v>
+      </c>
+      <c r="D29" s="18" t="s">
+        <v>160</v>
       </c>
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
       <c r="G29" s="5"/>
       <c r="H29" s="5"/>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" ht="13.8">
       <c r="A30" s="5"/>
       <c r="B30" s="5" t="s">
         <v>80</v>
@@ -29585,279 +29635,362 @@
       <c r="C30" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="D30" s="5" t="s">
-        <v>71</v>
+      <c r="D30" s="18" t="s">
+        <v>296</v>
       </c>
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
       <c r="G30" s="5"/>
       <c r="H30" s="5"/>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" ht="13.8">
       <c r="A31" s="5"/>
       <c r="B31" s="6"/>
       <c r="C31" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="D31" s="5" t="s">
-        <v>74</v>
+      <c r="D31" s="18" t="s">
+        <v>90</v>
       </c>
       <c r="E31" s="5"/>
       <c r="F31" s="5"/>
       <c r="G31" s="5"/>
       <c r="H31" s="5"/>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" ht="13.8">
       <c r="A32" s="5"/>
       <c r="B32" s="6"/>
       <c r="C32" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>76</v>
+        <v>152</v>
+      </c>
+      <c r="D32" s="18" t="s">
+        <v>91</v>
       </c>
       <c r="E32" s="5"/>
       <c r="F32" s="5"/>
       <c r="G32" s="5"/>
       <c r="H32" s="5"/>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" ht="13.8">
       <c r="A33" s="5"/>
       <c r="B33" s="6"/>
       <c r="C33" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="D33" s="5" t="s">
-        <v>79</v>
+      <c r="D33" s="18" t="s">
+        <v>120</v>
       </c>
       <c r="E33" s="5"/>
       <c r="F33" s="5"/>
       <c r="G33" s="5"/>
       <c r="H33" s="5"/>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" ht="13.8">
       <c r="A34" s="5"/>
       <c r="B34" s="6"/>
       <c r="C34" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="D34" s="5" t="s">
-        <v>82</v>
+      <c r="D34" s="18" t="s">
+        <v>161</v>
       </c>
       <c r="E34" s="5"/>
       <c r="F34" s="5"/>
       <c r="G34" s="5"/>
       <c r="H34" s="5"/>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" ht="13.8">
       <c r="A35" s="5"/>
       <c r="B35" s="6"/>
       <c r="C35" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>84</v>
+        <v>110</v>
+      </c>
+      <c r="D35" s="18" t="s">
+        <v>297</v>
       </c>
       <c r="E35" s="5"/>
       <c r="F35" s="5"/>
       <c r="G35" s="5"/>
       <c r="H35" s="5"/>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" ht="13.8">
       <c r="A36" s="5"/>
       <c r="B36" s="6"/>
       <c r="C36" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="D36" s="5" t="s">
-        <v>117</v>
+        <v>109</v>
+      </c>
+      <c r="D36" s="18" t="s">
+        <v>298</v>
       </c>
       <c r="E36" s="5"/>
       <c r="F36" s="5"/>
       <c r="G36" s="5"/>
       <c r="H36" s="5"/>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" ht="13.8">
       <c r="A37" s="5"/>
       <c r="B37" s="5"/>
       <c r="C37" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="D37" s="5" t="s">
-        <v>118</v>
+        <v>148</v>
+      </c>
+      <c r="D37" s="18" t="s">
+        <v>299</v>
       </c>
       <c r="E37" s="5"/>
       <c r="F37" s="5"/>
       <c r="G37" s="5"/>
       <c r="H37" s="5"/>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" ht="13.8">
       <c r="A38" s="5"/>
       <c r="B38" s="5"/>
       <c r="C38" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D38" s="5" t="s">
-        <v>119</v>
+      <c r="D38" s="18" t="s">
+        <v>88</v>
       </c>
       <c r="E38" s="5"/>
       <c r="F38" s="5"/>
       <c r="G38" s="5"/>
       <c r="H38" s="5"/>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" ht="13.8">
       <c r="A39" s="5"/>
       <c r="B39" s="6"/>
       <c r="C39" s="5"/>
-      <c r="D39" s="5" t="s">
-        <v>86</v>
+      <c r="D39" s="18" t="s">
+        <v>89</v>
       </c>
       <c r="E39" s="5"/>
       <c r="F39" s="5"/>
       <c r="G39" s="5"/>
       <c r="H39" s="5"/>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" ht="13.8">
       <c r="A40" s="5"/>
       <c r="B40" s="6"/>
       <c r="C40" s="5"/>
-      <c r="D40" s="5" t="s">
-        <v>157</v>
+      <c r="D40" s="18" t="s">
+        <v>119</v>
       </c>
       <c r="E40" s="5"/>
       <c r="F40" s="5"/>
       <c r="G40" s="5"/>
       <c r="H40" s="5"/>
     </row>
-    <row r="41" spans="1:8">
-      <c r="D41" s="2" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
-      <c r="D42" s="2" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
-      <c r="D43" s="2" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
-      <c r="D44" s="2" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
-      <c r="D45" s="5" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
-      <c r="D46" s="5" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
-      <c r="D47" s="5" t="s">
+    <row r="41" spans="1:8" ht="13.8">
+      <c r="D41" s="18" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="13.8">
+      <c r="D42" s="18" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="13.8">
+      <c r="D43" s="18" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="13.8">
+      <c r="D44" s="18" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="13.8">
+      <c r="D45" s="18" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="13.8">
+      <c r="D46" s="18" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="48" spans="1:8">
-      <c r="D48" s="2" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="49" spans="4:4">
-      <c r="D49" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="50" spans="4:4">
-      <c r="D50" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="51" spans="4:4">
-      <c r="D51" s="2" t="s">
+    <row r="47" spans="1:8" ht="13.8">
+      <c r="D47" s="18" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="52" spans="4:4">
-      <c r="D52" s="2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="53" spans="4:4">
-      <c r="D53" s="2" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="54" spans="4:4">
-      <c r="D54" s="2" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="55" spans="4:4">
-      <c r="D55" s="2" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="56" spans="4:4">
-      <c r="D56" s="2" t="s">
+    <row r="48" spans="1:8" ht="13.8">
+      <c r="D48" s="18" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="49" spans="4:4" ht="13.8">
+      <c r="D49" s="18" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="50" spans="4:4" ht="13.8">
+      <c r="D50" s="18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="51" spans="4:4" ht="13.8">
+      <c r="D51" s="18" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="52" spans="4:4" ht="13.8">
+      <c r="D52" s="18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="53" spans="4:4" ht="13.8">
+      <c r="D53" s="18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="54" spans="4:4" ht="13.8">
+      <c r="D54" s="18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="55" spans="4:4" ht="13.8">
+      <c r="D55" s="18" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="56" spans="4:4" ht="13.8">
+      <c r="D56" s="18" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="57" spans="4:4" ht="13.8">
+      <c r="D57" s="18" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="58" spans="4:4" ht="13.8">
+      <c r="D58" s="18" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="59" spans="4:4" ht="13.8">
+      <c r="D59" s="18" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="60" spans="4:4" ht="13.8">
+      <c r="D60" s="18" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="61" spans="4:4" ht="13.8">
+      <c r="D61" s="18" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="57" spans="4:4">
-      <c r="D57" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="58" spans="4:4">
-      <c r="D58" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="59" spans="4:4">
-      <c r="D59" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="60" spans="4:4">
-      <c r="D60" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="61" spans="4:4">
-      <c r="D61" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="62" spans="4:4">
-      <c r="D62" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="63" spans="4:4">
-      <c r="D63" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="64" spans="4:4">
-      <c r="D64" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="65" spans="4:4">
-      <c r="D65" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="66" spans="4:4">
-      <c r="D66" s="2" t="s">
+    <row r="62" spans="4:4" ht="13.8">
+      <c r="D62" s="18" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="63" spans="4:4" ht="13.8">
+      <c r="D63" s="18" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="64" spans="4:4" ht="13.8">
+      <c r="D64" s="18" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="65" spans="4:4" ht="13.8">
+      <c r="D65" s="18" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="66" spans="4:4" ht="13.8">
+      <c r="D66" s="18" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="67" spans="4:4" ht="13.8">
+      <c r="D67" s="18" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="68" spans="4:4" ht="13.8">
+      <c r="D68" s="18" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="69" spans="4:4" ht="13.8">
+      <c r="D69" s="18" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="70" spans="4:4" ht="13.8">
+      <c r="D70" s="18" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="71" spans="4:4" ht="13.8">
+      <c r="D71" s="18" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="72" spans="4:4">
+      <c r="D72" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="73" spans="4:4">
+      <c r="D73" s="5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="74" spans="4:4">
+      <c r="D74" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="75" spans="4:4">
+      <c r="D75" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="76" spans="4:4">
+      <c r="D76" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="77" spans="4:4">
+      <c r="D77" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="78" spans="4:4">
+      <c r="D78" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="79" spans="4:4">
+      <c r="D79" s="5" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="80" spans="4:4">
+      <c r="D80" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="81" spans="4:4">
+      <c r="D81" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="82" spans="4:4">
+      <c r="D82" s="5" t="s">
         <v>80</v>
       </c>
+    </row>
+    <row r="83" spans="4:4">
+      <c r="D83" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
